--- a/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F371AB-A210-4ABB-9A35-E14D7BBAED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFB46E1-8AFB-4682-A119-5EB1FB1F0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9CD05A14-281E-4245-BA58-F20207D0CB4A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A820CCDA-314C-43A1-84DD-4EE5DC013294}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -119,6 +119,63 @@
     <t>9,04%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -176,63 +233,6 @@
     <t>19,09%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
     <t>89,99%</t>
   </si>
   <si>
@@ -314,6 +314,60 @@
     <t>16,66%</t>
   </si>
   <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
     <t>87,14%</t>
   </si>
   <si>
@@ -368,60 +422,6 @@
     <t>15,83%</t>
   </si>
   <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
     <t>90,12%</t>
   </si>
   <si>
@@ -497,6 +497,60 @@
     <t>5,78%</t>
   </si>
   <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
     <t>92,69%</t>
   </si>
   <si>
@@ -545,60 +599,6 @@
     <t>12,79%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
     <t>94,32%</t>
   </si>
   <si>
@@ -674,6 +674,60 @@
     <t>1,9%</t>
   </si>
   <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
     <t>92,62%</t>
   </si>
   <si>
@@ -726,60 +780,6 @@
   </si>
   <si>
     <t>10,59%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
   </si>
   <si>
     <t>94,08%</t>
@@ -1225,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FA5E8-5E71-4A21-A673-453F071B3B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2758D7BB-2F75-47CE-999B-449AA7E4338A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="D7" s="7">
-        <v>196828</v>
+        <v>109042</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1513,10 +1513,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="I7" s="7">
-        <v>182375</v>
+        <v>104195</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1528,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>567</v>
+        <v>320</v>
       </c>
       <c r="N7" s="7">
-        <v>379203</v>
+        <v>213237</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1549,10 +1549,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>33552</v>
+        <v>2674</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1564,10 +1564,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>40255</v>
+        <v>1875</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1579,10 +1579,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>73807</v>
+        <v>4549</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1600,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1615,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1630,10 +1630,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1653,10 +1653,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="D10" s="7">
-        <v>109042</v>
+        <v>196828</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1668,10 +1668,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>104195</v>
+        <v>182375</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1683,10 +1683,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>320</v>
+        <v>567</v>
       </c>
       <c r="N10" s="7">
-        <v>213237</v>
+        <v>379203</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1704,10 +1704,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>2674</v>
+        <v>33552</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1719,10 +1719,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>1875</v>
+        <v>40255</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1734,10 +1734,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>4549</v>
+        <v>73807</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1755,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1770,10 +1770,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1785,10 +1785,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1971,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE63DCEB-D376-4CC4-A053-94E196F05A0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE2E243-75E7-4DEE-9E03-01FEB9E65E5F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2244,10 +2244,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>191380</v>
+        <v>125813</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>91</v>
@@ -2259,10 +2259,10 @@
         <v>93</v>
       </c>
       <c r="H7" s="7">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="I7" s="7">
-        <v>185611</v>
+        <v>119085</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>94</v>
@@ -2274,10 +2274,10 @@
         <v>96</v>
       </c>
       <c r="M7" s="7">
-        <v>548</v>
+        <v>337</v>
       </c>
       <c r="N7" s="7">
-        <v>376992</v>
+        <v>244900</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>97</v>
@@ -2295,10 +2295,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>28237</v>
+        <v>6865</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>100</v>
@@ -2310,10 +2310,10 @@
         <v>102</v>
       </c>
       <c r="H8" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>28298</v>
+        <v>6040</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>103</v>
@@ -2325,10 +2325,10 @@
         <v>105</v>
       </c>
       <c r="M8" s="7">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>56534</v>
+        <v>12904</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>106</v>
@@ -2346,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>219617</v>
+        <v>132678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2361,10 +2361,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="I9" s="7">
-        <v>213909</v>
+        <v>125125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2376,10 +2376,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>630</v>
+        <v>356</v>
       </c>
       <c r="N9" s="7">
-        <v>433526</v>
+        <v>257804</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2399,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="D10" s="7">
-        <v>125813</v>
+        <v>191380</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>109</v>
@@ -2414,10 +2414,10 @@
         <v>111</v>
       </c>
       <c r="H10" s="7">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="I10" s="7">
-        <v>119085</v>
+        <v>185611</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>112</v>
@@ -2429,10 +2429,10 @@
         <v>114</v>
       </c>
       <c r="M10" s="7">
-        <v>337</v>
+        <v>548</v>
       </c>
       <c r="N10" s="7">
-        <v>244900</v>
+        <v>376992</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>115</v>
@@ -2450,10 +2450,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>6865</v>
+        <v>28237</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>118</v>
@@ -2465,10 +2465,10 @@
         <v>120</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>6040</v>
+        <v>28298</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>121</v>
@@ -2480,10 +2480,10 @@
         <v>123</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>12904</v>
+        <v>56534</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>124</v>
@@ -2501,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>132678</v>
+        <v>219617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2516,10 +2516,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="I12" s="7">
-        <v>125125</v>
+        <v>213909</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2531,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>356</v>
+        <v>630</v>
       </c>
       <c r="N12" s="7">
-        <v>257804</v>
+        <v>433526</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE5505B-6751-4F30-A1A1-569E1E12D4DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE85E0D0-DF20-4B4B-AB29-0CF10CA2B6B3}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2990,10 +2990,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="D7" s="7">
-        <v>208190</v>
+        <v>129180</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>152</v>
@@ -3005,10 +3005,10 @@
         <v>154</v>
       </c>
       <c r="H7" s="7">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>195154</v>
+        <v>127919</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>155</v>
@@ -3020,19 +3020,19 @@
         <v>157</v>
       </c>
       <c r="M7" s="7">
-        <v>558</v>
+        <v>377</v>
       </c>
       <c r="N7" s="7">
-        <v>403343</v>
+        <v>257100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,49 +3041,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>16410</v>
+        <v>4486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>27807</v>
+        <v>1885</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>44217</v>
+        <v>6370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
-        <v>224600</v>
+        <v>133666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3107,10 +3107,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>222961</v>
+        <v>129804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3122,10 +3122,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>619</v>
+        <v>387</v>
       </c>
       <c r="N9" s="7">
-        <v>447560</v>
+        <v>263470</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3145,49 +3145,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="D10" s="7">
-        <v>129180</v>
+        <v>208190</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="I10" s="7">
-        <v>127919</v>
+        <v>195154</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
-        <v>377</v>
+        <v>558</v>
       </c>
       <c r="N10" s="7">
-        <v>257100</v>
+        <v>403343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,43 +3196,43 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>4486</v>
+        <v>16410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>1885</v>
+        <v>27807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>6370</v>
+        <v>44217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>184</v>
@@ -3247,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="D12" s="7">
-        <v>133666</v>
+        <v>224600</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3262,10 +3262,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="I12" s="7">
-        <v>129804</v>
+        <v>222961</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3277,10 +3277,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>387</v>
+        <v>619</v>
       </c>
       <c r="N12" s="7">
-        <v>263470</v>
+        <v>447560</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3463,7 +3463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1336B6F9-CB3F-47BD-A21D-400B244B644C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0C3F16-A4CA-4944-A801-C16B1B852CBD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3736,10 +3736,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="D7" s="7">
-        <v>296032</v>
+        <v>119790</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>211</v>
@@ -3751,10 +3751,10 @@
         <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7">
-        <v>246082</v>
+        <v>107382</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>214</v>
@@ -3766,10 +3766,10 @@
         <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>682</v>
+        <v>298</v>
       </c>
       <c r="N7" s="7">
-        <v>542114</v>
+        <v>227172</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>217</v>
@@ -3787,10 +3787,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>23605</v>
+        <v>3930</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>220</v>
@@ -3802,10 +3802,10 @@
         <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>26259</v>
+        <v>4150</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>223</v>
@@ -3817,10 +3817,10 @@
         <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>49864</v>
+        <v>8080</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>226</v>
@@ -3838,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3853,10 +3853,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>272341</v>
+        <v>111532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3868,10 +3868,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>745</v>
+        <v>309</v>
       </c>
       <c r="N9" s="7">
-        <v>591978</v>
+        <v>235252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3891,10 +3891,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>150</v>
+        <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>119790</v>
+        <v>296032</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>229</v>
@@ -3906,10 +3906,10 @@
         <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="I10" s="7">
-        <v>107382</v>
+        <v>246082</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>232</v>
@@ -3921,10 +3921,10 @@
         <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>298</v>
+        <v>682</v>
       </c>
       <c r="N10" s="7">
-        <v>227172</v>
+        <v>542114</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>235</v>
@@ -3942,10 +3942,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>3930</v>
+        <v>23605</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>238</v>
@@ -3957,10 +3957,10 @@
         <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>4150</v>
+        <v>26259</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>241</v>
@@ -3972,10 +3972,10 @@
         <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>8080</v>
+        <v>49864</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>244</v>
@@ -3993,10 +3993,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -4008,10 +4008,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>111532</v>
+        <v>272341</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -4023,10 +4023,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>309</v>
+        <v>745</v>
       </c>
       <c r="N12" s="7">
-        <v>235252</v>
+        <v>591978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFB46E1-8AFB-4682-A119-5EB1FB1F0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F42715C-7F5B-4784-BF71-61CEF3810E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A820CCDA-314C-43A1-84DD-4EE5DC013294}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96A9EC26-65F5-4768-82ED-90E50D088386}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="317">
   <si>
     <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,31 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -77,763 +101,895 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,04%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
 </sst>
 </file>
@@ -844,7 +1000,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -940,39 +1096,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1024,7 +1180,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1135,13 +1291,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1150,6 +1299,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1214,19 +1370,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2758D7BB-2F75-47CE-999B-449AA7E4338A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0449CC23-011A-4C98-A317-CEA7CFECE58D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1343,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>19635</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1358,34 +1534,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21462</v>
+        <v>768</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>41097</v>
+        <v>769</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,10 +1570,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1409,34 +1585,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>768</v>
+        <v>3138</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>768</v>
+        <v>5030</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,49 +1621,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,49 +1674,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>109042</v>
+        <v>1321</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>154</v>
-      </c>
-      <c r="I7" s="7">
-        <v>104195</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1321</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7">
-        <v>320</v>
-      </c>
-      <c r="N7" s="7">
-        <v>213237</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,49 +1725,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7">
-        <v>2674</v>
+        <v>79097</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>127</v>
+      </c>
+      <c r="I8" s="7">
+        <v>84335</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>248</v>
+      </c>
+      <c r="N8" s="7">
+        <v>163432</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1875</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4549</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,102 +1776,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>196828</v>
+        <v>4945</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10980</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7">
+        <v>23</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15925</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7">
-        <v>272</v>
-      </c>
-      <c r="I10" s="7">
-        <v>182375</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="7">
-        <v>567</v>
-      </c>
-      <c r="N10" s="7">
-        <v>379203</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,49 +1880,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>151</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100774</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="7">
-        <v>33552</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>132</v>
+      </c>
+      <c r="I11" s="7">
+        <v>88213</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="7">
+        <v>283</v>
+      </c>
+      <c r="N11" s="7">
+        <v>188987</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="7">
-        <v>58</v>
-      </c>
-      <c r="I11" s="7">
-        <v>40255</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="7">
-        <v>107</v>
-      </c>
-      <c r="N11" s="7">
-        <v>73807</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,102 +1931,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>325504</v>
+        <v>29960</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7">
+        <v>31150</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="7">
+        <v>89</v>
+      </c>
+      <c r="N13" s="7">
+        <v>61110</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="7">
-        <v>460</v>
-      </c>
-      <c r="I13" s="7">
-        <v>308032</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="7">
-        <v>952</v>
-      </c>
-      <c r="N13" s="7">
-        <v>633536</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,49 +2035,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>36227</v>
+        <v>143741</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="7">
+        <v>196</v>
+      </c>
+      <c r="I14" s="7">
+        <v>132347</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="7">
+        <v>413</v>
+      </c>
+      <c r="N14" s="7">
+        <v>276087</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="7">
-        <v>62</v>
-      </c>
-      <c r="I14" s="7">
-        <v>42898</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="7">
-        <v>115</v>
-      </c>
-      <c r="N14" s="7">
-        <v>79125</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,55 +2086,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36227</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="7">
+        <v>62</v>
+      </c>
+      <c r="I16" s="7">
+        <v>42898</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="7">
+        <v>115</v>
+      </c>
+      <c r="N16" s="7">
+        <v>79125</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>492</v>
+      </c>
+      <c r="D17" s="7">
+        <v>325504</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>460</v>
+      </c>
+      <c r="I17" s="7">
+        <v>308032</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="7">
+        <v>952</v>
+      </c>
+      <c r="N17" s="7">
+        <v>633536</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1971,8 +2308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE2E243-75E7-4DEE-9E03-01FEB9E65E5F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84722E21-453B-445C-8ACC-BB44324582BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1988,7 +2325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2089,49 +2426,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12656</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15693</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>28348</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,46 +2480,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1051</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3298</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>1051</v>
+        <v>3967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,49 +2528,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,49 +2581,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>125813</v>
+        <v>3046</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>119085</v>
+        <v>747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
-        <v>337</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>244900</v>
+        <v>3793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,49 +2632,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>6865</v>
+        <v>89018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="I8" s="7">
-        <v>6040</v>
+        <v>76941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="N8" s="7">
-        <v>12904</v>
+        <v>165958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,102 +2683,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132678</v>
+        <v>92064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
-        <v>125125</v>
+        <v>77688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>257804</v>
+        <v>169751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>191380</v>
+        <v>11546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>185611</v>
+        <v>8662</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
-        <v>548</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>376992</v>
+        <v>20208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,49 +2787,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7">
-        <v>28237</v>
+        <v>120540</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="I11" s="7">
-        <v>28298</v>
+        <v>117160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="N11" s="7">
-        <v>56534</v>
+        <v>237700</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,102 +2838,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>219617</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="I12" s="7">
-        <v>213909</v>
+        <v>125822</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>630</v>
+        <v>369</v>
       </c>
       <c r="N12" s="7">
-        <v>433526</v>
+        <v>257908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>329849</v>
+        <v>21560</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
-        <v>455</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>320390</v>
+        <v>24929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
-        <v>927</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>650239</v>
+        <v>46489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,49 +2942,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>36153</v>
+        <v>119623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="I14" s="7">
-        <v>34337</v>
+        <v>122991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="N14" s="7">
-        <v>70490</v>
+        <v>242614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,55 +2993,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>420</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289103</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36153</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7">
+        <v>50</v>
+      </c>
+      <c r="I16" s="7">
+        <v>34337</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" s="7">
+        <v>102</v>
+      </c>
+      <c r="N16" s="7">
+        <v>70490</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>472</v>
+      </c>
+      <c r="D17" s="7">
+        <v>329849</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="7">
+        <v>455</v>
+      </c>
+      <c r="I17" s="7">
+        <v>320390</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="7">
+        <v>927</v>
+      </c>
+      <c r="N17" s="7">
+        <v>650239</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>366002</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>505</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>354727</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1029</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>720729</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2717,8 +3215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE85E0D0-DF20-4B4B-AB29-0CF10CA2B6B3}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BDB58-7E21-4992-9452-A2F76BF50350}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2734,7 +3232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2835,46 +3333,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9743</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>10631</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>20374</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2886,40 +3384,40 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
@@ -2928,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,49 +3435,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,49 +3488,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>129180</v>
+        <v>2308</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>127919</v>
+        <v>682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>257100</v>
+        <v>2990</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,49 +3539,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>4486</v>
+        <v>79821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="I8" s="7">
-        <v>1885</v>
+        <v>67378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="N8" s="7">
-        <v>6370</v>
+        <v>147199</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,102 +3590,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>133666</v>
+        <v>82129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I9" s="7">
-        <v>129804</v>
+        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="N9" s="7">
-        <v>263470</v>
+        <v>150189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>208190</v>
+        <v>6293</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>195154</v>
+        <v>3754</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
-        <v>558</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>403343</v>
+        <v>10046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,49 +3694,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="D11" s="7">
-        <v>16410</v>
+        <v>143048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="I11" s="7">
-        <v>27807</v>
+        <v>145163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>407</v>
       </c>
       <c r="N11" s="7">
-        <v>44217</v>
+        <v>288212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,102 +3745,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>224600</v>
+        <v>149341</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>222961</v>
+        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>619</v>
+        <v>421</v>
       </c>
       <c r="N12" s="7">
-        <v>447560</v>
+        <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>480</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>347113</v>
+        <v>12295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
-        <v>487</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>333704</v>
+        <v>25256</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
-        <v>967</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>680817</v>
+        <v>37551</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,49 +3849,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="D14" s="7">
-        <v>20895</v>
+        <v>122960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>29692</v>
+        <v>120627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
-        <v>71</v>
+        <v>340</v>
       </c>
       <c r="N14" s="7">
-        <v>50587</v>
+        <v>243587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,55 +3900,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>183</v>
+      </c>
+      <c r="D15" s="7">
+        <v>135255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>209</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145883</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>392</v>
+      </c>
+      <c r="N15" s="7">
+        <v>281138</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20895</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="7">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29692</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" s="7">
+        <v>71</v>
+      </c>
+      <c r="N16" s="7">
+        <v>50587</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>480</v>
+      </c>
+      <c r="D17" s="7">
+        <v>347113</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="7">
+        <v>487</v>
+      </c>
+      <c r="I17" s="7">
+        <v>333704</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" s="7">
+        <v>967</v>
+      </c>
+      <c r="N17" s="7">
+        <v>680817</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>368008</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>528</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>363396</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1038</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>731404</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3463,8 +4122,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0C3F16-A4CA-4944-A801-C16B1B852CBD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBC954-DBE3-4C6E-BBE0-57C3A9774CE2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3480,7 +4139,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3581,49 +4240,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>21445</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>15436</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>69</v>
-      </c>
-      <c r="N4" s="7">
-        <v>36881</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,49 +4291,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5284</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>715</v>
+        <v>5917</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
       <c r="N5" s="7">
-        <v>715</v>
+        <v>11201</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,49 +4342,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>21445</v>
+        <v>5284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>37596</v>
+        <v>11201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,49 +4395,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>119790</v>
+        <v>1912</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>107382</v>
+        <v>1566</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>227172</v>
+        <v>3479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,49 +4446,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>3930</v>
+        <v>71470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="I8" s="7">
-        <v>4150</v>
+        <v>65504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="N8" s="7">
-        <v>8080</v>
+        <v>136973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,102 +4497,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>123720</v>
+        <v>73382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>235252</v>
+        <v>140452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>296032</v>
+        <v>10188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>335</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>246082</v>
+        <v>3727</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>682</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>542114</v>
+        <v>13915</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,49 +4601,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D11" s="7">
-        <v>23605</v>
+        <v>147019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="I11" s="7">
-        <v>26259</v>
+        <v>120397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>331</v>
       </c>
       <c r="N11" s="7">
-        <v>49864</v>
+        <v>267416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,102 +4652,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>272341</v>
+        <v>124124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>745</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>591978</v>
+        <v>281331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>535</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>437268</v>
+        <v>15435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>514</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>368900</v>
+        <v>25831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
-        <v>1049</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>806166</v>
+        <v>41266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,49 +4756,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>27535</v>
+        <v>213496</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="I14" s="7">
-        <v>31124</v>
+        <v>177081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
-        <v>75</v>
+        <v>493</v>
       </c>
       <c r="N14" s="7">
-        <v>58660</v>
+        <v>390577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,55 +4807,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
+        <v>277</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7">
+        <v>545</v>
+      </c>
+      <c r="N15" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7">
+        <v>27535</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="7">
+        <v>40</v>
+      </c>
+      <c r="I16" s="7">
+        <v>31124</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M16" s="7">
+        <v>75</v>
+      </c>
+      <c r="N16" s="7">
+        <v>58660</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>535</v>
+      </c>
+      <c r="D17" s="7">
+        <v>437268</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="7">
+        <v>514</v>
+      </c>
+      <c r="I17" s="7">
+        <v>368900</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1049</v>
+      </c>
+      <c r="N17" s="7">
+        <v>806166</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>464803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>554</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>400024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7">
         <v>1124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>864826</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F42715C-7F5B-4784-BF71-61CEF3810E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43217089-2E63-4467-BEB5-30CBAED4299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96A9EC26-65F5-4768-82ED-90E50D088386}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D70D183-A37A-40E4-A5F1-94D8BA316B72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="313">
   <si>
     <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>19,67%</t>
   </si>
   <si>
-    <t>77,35%</t>
+    <t>72,01%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>51,59%</t>
+    <t>51,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,13 +110,13 @@
     <t>80,33%</t>
   </si>
   <si>
-    <t>22,65%</t>
+    <t>27,99%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>48,41%</t>
+    <t>48,03%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -125,7 +125,7 @@
     <t>1,64%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>4,98%</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -134,13 +134,13 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,82%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>95,06%</t>
+    <t>95,02%</t>
   </si>
   <si>
     <t>98,5%</t>
@@ -149,7 +149,7 @@
     <t>99,2%</t>
   </si>
   <si>
-    <t>97,18%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -158,55 +158,55 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -215,736 +215,724 @@
     <t>17,25%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>95,97%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>7,78%</t>
@@ -953,31 +941,31 @@
     <t>5,55%</t>
   </si>
   <si>
-    <t>10,63%</t>
+    <t>10,37%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>89,37%</t>
+    <t>89,63%</t>
   </si>
   <si>
     <t>94,45%</t>
@@ -986,10 +974,10 @@
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0449CC23-011A-4C98-A317-CEA7CFECE58D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE74E74-68E4-4E57-AC7B-BECE1C0870C9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2178,10 +2166,10 @@
         <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2184,13 @@
         <v>325504</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>460</v>
@@ -2211,13 +2199,13 @@
         <v>308032</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>952</v>
@@ -2226,13 +2214,13 @@
         <v>633536</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,7 +2276,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84722E21-453B-445C-8ACC-BB44324582BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBF99B-7658-4085-88B9-DAB514482B40}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2325,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2438,7 +2426,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2453,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2468,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2501,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2516,7 +2504,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2587,13 +2575,13 @@
         <v>3046</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2602,13 +2590,13 @@
         <v>747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2617,13 +2605,13 @@
         <v>3793</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2626,13 @@
         <v>89018</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
@@ -2653,10 +2641,10 @@
         <v>76941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2668,13 +2656,13 @@
         <v>165958</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2730,13 @@
         <v>11546</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2757,13 +2745,13 @@
         <v>8662</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2772,13 +2760,13 @@
         <v>20208</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2781,13 @@
         <v>120540</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>166</v>
@@ -2808,13 +2796,13 @@
         <v>117160</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>339</v>
@@ -2823,13 +2811,13 @@
         <v>237700</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2885,13 @@
         <v>21560</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2912,13 +2900,13 @@
         <v>24929</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2927,13 +2915,13 @@
         <v>46489</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2936,13 @@
         <v>119623</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -2963,13 +2951,13 @@
         <v>122991</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>353</v>
@@ -2978,13 +2966,13 @@
         <v>242614</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3040,13 @@
         <v>36153</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -3067,13 +3055,13 @@
         <v>34337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -3082,13 +3070,13 @@
         <v>70490</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3091,13 @@
         <v>329849</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>455</v>
@@ -3118,13 +3106,13 @@
         <v>320390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>927</v>
@@ -3133,13 +3121,13 @@
         <v>650239</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3183,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +3203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270BDB58-7E21-4992-9452-A2F76BF50350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE3E5E-9AA7-4658-953A-568FFABB953F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3232,7 +3220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3345,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3360,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3393,7 +3381,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3408,7 +3396,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3494,13 +3482,13 @@
         <v>2308</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3509,13 +3497,13 @@
         <v>682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3524,13 +3512,13 @@
         <v>2990</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3533,13 @@
         <v>79821</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>103</v>
@@ -3560,10 +3548,10 @@
         <v>67378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3575,13 +3563,13 @@
         <v>147199</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3637,13 @@
         <v>6293</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3664,13 +3652,13 @@
         <v>3754</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3679,13 +3667,13 @@
         <v>10046</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3688,13 @@
         <v>143048</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>209</v>
@@ -3715,13 +3703,13 @@
         <v>145163</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>407</v>
@@ -3730,13 +3718,13 @@
         <v>288212</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3792,13 @@
         <v>12295</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3819,13 +3807,13 @@
         <v>25256</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3834,13 +3822,13 @@
         <v>37551</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3843,13 @@
         <v>122960</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -3870,13 +3858,13 @@
         <v>120627</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
@@ -3885,13 +3873,13 @@
         <v>243587</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3947,13 @@
         <v>20895</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3974,13 +3962,13 @@
         <v>29692</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3989,13 +3977,13 @@
         <v>50587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +3998,13 @@
         <v>347113</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>487</v>
@@ -4025,13 +4013,13 @@
         <v>333704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>967</v>
@@ -4040,13 +4028,13 @@
         <v>680817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,7 +4090,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBC954-DBE3-4C6E-BBE0-57C3A9774CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C290C2-0EA8-43F8-82E2-0EF167AF91D0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4139,7 +4127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4252,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4267,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4282,7 +4270,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4288,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4315,7 +4303,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4330,7 +4318,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4401,13 +4389,13 @@
         <v>1912</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4416,13 +4404,13 @@
         <v>1566</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4431,13 +4419,13 @@
         <v>3479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4440,13 @@
         <v>71470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
@@ -4467,10 +4455,10 @@
         <v>65504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4482,13 +4470,13 @@
         <v>136973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4544,13 @@
         <v>10188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4571,13 +4559,13 @@
         <v>3727</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4586,13 +4574,13 @@
         <v>13915</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4595,13 @@
         <v>147019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -4622,13 +4610,13 @@
         <v>120397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>331</v>
@@ -4637,13 +4625,13 @@
         <v>267416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4699,13 @@
         <v>15435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4726,13 +4714,13 @@
         <v>25831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4741,13 +4729,13 @@
         <v>41266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4750,13 @@
         <v>213496</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>245</v>
@@ -4777,13 +4765,13 @@
         <v>177081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>493</v>
@@ -4792,13 +4780,13 @@
         <v>390577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4854,13 @@
         <v>27535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -4881,13 +4869,13 @@
         <v>31124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -4896,13 +4884,13 @@
         <v>58660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4905,13 @@
         <v>437268</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>514</v>
@@ -4932,13 +4920,13 @@
         <v>368900</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>1049</v>
@@ -4947,13 +4935,13 @@
         <v>806166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,7 +4997,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43217089-2E63-4467-BEB5-30CBAED4299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A63CABC-5AEB-4692-A271-2EBB61C25794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D70D183-A37A-40E4-A5F1-94D8BA316B72}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3F9C83C-D30F-4B1C-A946-0A3AE17492AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="313">
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="317">
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 50,71%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,30 +74,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>19,67%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>77,02%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>51,97%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -107,877 +113,883 @@
     <t>100%</t>
   </si>
   <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>48,03%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>94,2%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,36%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 49,02%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2016 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE74E74-68E4-4E57-AC7B-BECE1C0870C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3192CF08-11EC-48FC-9A86-ED871328749B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1507,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1522,16 +1534,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1546,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1558,10 +1570,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3138</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1573,19 +1585,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3138</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -1600,7 +1612,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,34 +1621,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -1645,13 +1657,13 @@
         <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,28 +1674,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1321</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -1701,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>31</v>
@@ -1713,28 +1725,28 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>127</v>
+      </c>
+      <c r="D8" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
         <v>121</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>79097</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>127</v>
-      </c>
-      <c r="I8" s="7">
-        <v>84335</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>34</v>
@@ -1755,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,34 +1776,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -1800,13 +1812,13 @@
         <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>4945</v>
+        <v>10980</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
@@ -1832,10 +1844,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>10980</v>
+        <v>4945</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>41</v>
@@ -1868,10 +1880,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>100774</v>
+        <v>88213</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>47</v>
@@ -1883,10 +1895,10 @@
         <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="I11" s="7">
-        <v>88213</v>
+        <v>100774</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>50</v>
@@ -1919,34 +1931,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>306</v>
@@ -1955,13 +1967,13 @@
         <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,10 +1984,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>29960</v>
+        <v>31150</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>57</v>
@@ -1987,10 +1999,10 @@
         <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>31150</v>
+        <v>29960</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>60</v>
@@ -2023,10 +2035,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>143741</v>
+        <v>132347</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>66</v>
@@ -2038,10 +2050,10 @@
         <v>68</v>
       </c>
       <c r="H14" s="7">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>132347</v>
+        <v>143741</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>69</v>
@@ -2074,34 +2086,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>502</v>
@@ -2110,13 +2122,13 @@
         <v>337197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>36227</v>
+        <v>42898</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>75</v>
@@ -2139,22 +2151,22 @@
         <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="7">
+        <v>53</v>
+      </c>
+      <c r="I16" s="7">
+        <v>36227</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="7">
-        <v>62</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42898</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -2163,10 +2175,10 @@
         <v>79125</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>82</v>
@@ -2178,34 +2190,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D17" s="7">
-        <v>325504</v>
+        <v>308032</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>492</v>
+      </c>
+      <c r="I17" s="7">
+        <v>325504</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="7">
-        <v>460</v>
-      </c>
-      <c r="I17" s="7">
-        <v>308032</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>952</v>
@@ -2214,13 +2226,13 @@
         <v>633536</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,34 +2241,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1067</v>
@@ -2265,13 +2277,13 @@
         <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBF99B-7658-4085-88B9-DAB514482B40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EDC444-B5A8-4664-A8E4-CCA8341B9435}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>93</v>
@@ -2435,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>94</v>
@@ -2450,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>95</v>
@@ -2465,34 +2477,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>669</v>
+        <v>3298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>669</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3298</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2501,13 +2513,13 @@
         <v>3967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,34 +2528,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -2552,13 +2564,13 @@
         <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,31 +2581,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>3046</v>
+        <v>747</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3046</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>747</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>103</v>
@@ -2620,10 +2632,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>89018</v>
+        <v>76941</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>107</v>
@@ -2632,22 +2644,22 @@
         <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>120</v>
+      </c>
+      <c r="I8" s="7">
+        <v>89018</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="7">
-        <v>109</v>
-      </c>
-      <c r="I8" s="7">
-        <v>76941</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>229</v>
@@ -2671,34 +2683,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>110</v>
+      </c>
+      <c r="D9" s="7">
+        <v>77688</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>124</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92064</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>110</v>
-      </c>
-      <c r="I9" s="7">
-        <v>77688</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>234</v>
@@ -2707,13 +2719,13 @@
         <v>169751</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,10 +2736,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>11546</v>
+        <v>8662</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>115</v>
@@ -2739,10 +2751,10 @@
         <v>117</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>8662</v>
+        <v>11546</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>118</v>
@@ -2775,10 +2787,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>120540</v>
+        <v>117160</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>124</v>
@@ -2790,10 +2802,10 @@
         <v>126</v>
       </c>
       <c r="H11" s="7">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I11" s="7">
-        <v>117160</v>
+        <v>120540</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>127</v>
@@ -2826,34 +2838,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>179</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125822</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>179</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125822</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>369</v>
@@ -2862,13 +2874,13 @@
         <v>257908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>21560</v>
+        <v>24929</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>133</v>
@@ -2894,10 +2906,10 @@
         <v>135</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>24929</v>
+        <v>21560</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>136</v>
@@ -2930,10 +2942,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14" s="7">
-        <v>119623</v>
+        <v>122991</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>142</v>
@@ -2945,10 +2957,10 @@
         <v>144</v>
       </c>
       <c r="H14" s="7">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>122991</v>
+        <v>119623</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>145</v>
@@ -2981,34 +2993,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>209</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141183</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>420</v>
@@ -3017,13 +3029,13 @@
         <v>289103</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,10 +3046,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>36153</v>
+        <v>34337</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>151</v>
@@ -3049,10 +3061,10 @@
         <v>153</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>34337</v>
+        <v>36153</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>154</v>
@@ -3061,7 +3073,7 @@
         <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -3070,13 +3082,13 @@
         <v>70490</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,34 +3097,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>455</v>
+      </c>
+      <c r="D17" s="7">
+        <v>320390</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="7">
         <v>472</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>329849</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>455</v>
-      </c>
-      <c r="I17" s="7">
-        <v>320390</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>927</v>
@@ -3121,13 +3133,13 @@
         <v>650239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,34 +3148,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>505</v>
+      </c>
+      <c r="D18" s="7">
+        <v>354727</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>524</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366002</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>505</v>
-      </c>
-      <c r="I18" s="7">
-        <v>354727</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1029</v>
@@ -3172,13 +3184,13 @@
         <v>720729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AE3E5E-9AA7-4658-953A-568FFABB953F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805B938A-B93B-4EA5-9AFE-384997FBBC59}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3220,7 +3232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3327,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3342,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3357,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,34 +3384,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>536</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>1284</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>536</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3408,13 +3420,13 @@
         <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,34 +3435,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3459,13 +3471,13 @@
         <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,34 +3488,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>682</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2308</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>682</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3512,13 +3524,13 @@
         <v>2990</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,34 +3539,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7">
+        <v>67378</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>114</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>79821</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="7">
-        <v>103</v>
-      </c>
-      <c r="I8" s="7">
-        <v>67378</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>217</v>
@@ -3563,13 +3575,13 @@
         <v>147199</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,34 +3590,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68060</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82129</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>104</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68060</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>222</v>
@@ -3614,13 +3626,13 @@
         <v>150189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,34 +3643,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3754</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6293</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3754</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3667,13 +3679,13 @@
         <v>10046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,34 +3694,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>209</v>
+      </c>
+      <c r="D11" s="7">
+        <v>145163</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="7">
+      <c r="G11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="7">
+        <v>198</v>
+      </c>
+      <c r="I11" s="7">
         <v>143048</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="7">
-        <v>209</v>
-      </c>
-      <c r="I11" s="7">
-        <v>145163</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>407</v>
@@ -3718,13 +3730,13 @@
         <v>288212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,34 +3745,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149341</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148917</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>421</v>
@@ -3769,13 +3781,13 @@
         <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,34 +3798,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25256</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="7">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12295</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25256</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3822,13 +3834,13 @@
         <v>37551</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,34 +3849,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>174</v>
+      </c>
+      <c r="D14" s="7">
+        <v>120627</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="7">
         <v>166</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>122960</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="7">
-        <v>174</v>
-      </c>
-      <c r="I14" s="7">
-        <v>120627</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
@@ -3873,13 +3885,13 @@
         <v>243587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,34 +3900,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145883</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>183</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>135255</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>209</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145883</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>392</v>
@@ -3924,13 +3936,13 @@
         <v>281138</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,34 +3953,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>29692</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="7">
         <v>30</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20895</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7">
-        <v>29692</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3977,13 +3989,13 @@
         <v>50587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,49 +4004,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>487</v>
+      </c>
+      <c r="D17" s="7">
+        <v>333704</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="7">
         <v>480</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>347113</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="7">
-        <v>487</v>
-      </c>
-      <c r="I17" s="7">
-        <v>333704</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>967</v>
       </c>
       <c r="N17" s="7">
-        <v>680817</v>
+        <v>680818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,49 +4055,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>528</v>
+      </c>
+      <c r="D18" s="7">
+        <v>363396</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>510</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>368008</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>528</v>
-      </c>
-      <c r="I18" s="7">
-        <v>363396</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1038</v>
       </c>
       <c r="N18" s="7">
-        <v>731404</v>
+        <v>731405</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C290C2-0EA8-43F8-82E2-0EF167AF91D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C146F11-C6EC-491E-BBC1-0A2D8B22DD6D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4127,7 +4139,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4234,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4249,13 +4261,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4264,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,49 +4291,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>5316</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5917</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,49 +4342,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
       <c r="I6" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,49 +4395,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1480</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
-        <v>1912</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
       <c r="I7" s="7">
-        <v>1566</v>
+        <v>1984</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>3479</v>
+        <v>3463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,49 +4446,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7">
+        <v>64716</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>105</v>
       </c>
-      <c r="D8" s="7">
-        <v>71470</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="7">
-        <v>101</v>
-      </c>
       <c r="I8" s="7">
-        <v>65504</v>
+        <v>75147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
       </c>
       <c r="N8" s="7">
-        <v>136973</v>
+        <v>139864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,49 +4497,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>108</v>
       </c>
-      <c r="D9" s="7">
-        <v>73382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
       <c r="I9" s="7">
-        <v>67070</v>
+        <v>77131</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>140452</v>
+        <v>143327</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,49 +4550,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3791</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>10188</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
       <c r="I10" s="7">
-        <v>3727</v>
+        <v>10300</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>13915</v>
+        <v>14091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,49 +4601,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>157</v>
+      </c>
+      <c r="D11" s="7">
+        <v>118112</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="7">
         <v>174</v>
       </c>
-      <c r="D11" s="7">
-        <v>147019</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="7">
-        <v>157</v>
-      </c>
       <c r="I11" s="7">
-        <v>120397</v>
+        <v>154488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>331</v>
       </c>
       <c r="N11" s="7">
-        <v>267416</v>
+        <v>272600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,49 +4652,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>121903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>163</v>
-      </c>
       <c r="I12" s="7">
-        <v>124124</v>
+        <v>164788</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>281331</v>
+        <v>286691</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,49 +4705,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25087</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
-        <v>15435</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="7">
-        <v>32</v>
-      </c>
       <c r="I13" s="7">
-        <v>25831</v>
+        <v>15596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>41266</v>
+        <v>40684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,49 +4756,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>245</v>
+      </c>
+      <c r="D14" s="7">
+        <v>172650</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="7">
         <v>248</v>
       </c>
-      <c r="D14" s="7">
-        <v>213496</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H14" s="7">
-        <v>245</v>
-      </c>
       <c r="I14" s="7">
-        <v>177081</v>
+        <v>221612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>493</v>
       </c>
       <c r="N14" s="7">
-        <v>390577</v>
+        <v>394261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,49 +4807,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>268</v>
       </c>
-      <c r="D15" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
       <c r="I15" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>545</v>
       </c>
       <c r="N15" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,49 +4860,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30358</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="7">
         <v>35</v>
       </c>
-      <c r="D16" s="7">
-        <v>27535</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16" s="7">
-        <v>40</v>
-      </c>
       <c r="I16" s="7">
-        <v>31124</v>
+        <v>27880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
       </c>
       <c r="N16" s="7">
-        <v>58660</v>
+        <v>58238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,49 +4911,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>514</v>
+      </c>
+      <c r="D17" s="7">
+        <v>361275</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="7">
         <v>535</v>
       </c>
-      <c r="D17" s="7">
-        <v>437268</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H17" s="7">
-        <v>514</v>
-      </c>
       <c r="I17" s="7">
-        <v>368900</v>
+        <v>456564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>1049</v>
       </c>
       <c r="N17" s="7">
-        <v>806166</v>
+        <v>817838</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,49 +4962,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>570</v>
       </c>
-      <c r="D18" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>554</v>
-      </c>
       <c r="I18" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
